--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417B411-5D53-6E4E-AF0A-14458C52A4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8D742-95B7-0A4D-A11D-8B5FDEAEDAD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Variables</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>FRIENDS</t>
-  </si>
-  <si>
-    <t>MARKETS</t>
   </si>
   <si>
     <t>LEVELS</t>
@@ -657,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,7 +686,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,39 +702,39 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,14 +742,6 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -1605,7 +1594,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="10">
         <v>5.62</v>

--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8D742-95B7-0A4D-A11D-8B5FDEAEDAD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A2D48-42A2-4643-98C9-637A964CB0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
         <v>29</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A2D48-42A2-4643-98C9-637A964CB0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7EBCE-8954-BE4E-9D93-617A0BD9276E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
         <v>29</v>
       </c>
       <c r="B1">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +757,7 @@
     <sheetView zoomScale="99" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,11 +888,11 @@
         <v>0.41700000000000004</v>
       </c>
       <c r="L4" s="1">
-        <v>0.36099999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="M4" s="1">
         <f>1-L4</f>
-        <v>0.63900000000000001</v>
+        <v>0.45799999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -935,11 +935,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="L5" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M16" si="5">1-L5</f>
-        <v>0.70100000000000007</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -982,11 +982,11 @@
         <v>0.43700000000000006</v>
       </c>
       <c r="L6" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="5"/>
-        <v>0.73199999999999998</v>
+        <v>0.55899999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1029,11 +1029,11 @@
         <v>0.41700000000000004</v>
       </c>
       <c r="L7" s="2">
-        <v>0.40200000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="5"/>
-        <v>0.59799999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1076,11 +1076,11 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="L8" s="1">
-        <v>0.23699999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
-        <v>0.76300000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1123,11 +1123,11 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="L9" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.373</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="5"/>
-        <v>0.73199999999999998</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1170,11 +1170,11 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="L10" s="1">
-        <v>0.443</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>0.55699999999999994</v>
+        <v>0.42400000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1262,11 +1262,11 @@
         <v>0.875</v>
       </c>
       <c r="L12" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>0.73199999999999998</v>
+        <v>0.81400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1309,11 +1309,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="L13" s="2">
-        <v>0.186</v>
+        <v>0.254</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="5"/>
-        <v>0.81400000000000006</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1357,11 +1357,11 @@
         <v>0.29200000000000004</v>
       </c>
       <c r="L14" s="1">
-        <v>0.495</v>
+        <v>0.627</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>0.505</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1404,11 +1404,11 @@
         <v>0.20799999999999996</v>
       </c>
       <c r="L15" s="2">
-        <v>0.73199999999999998</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>0.26800000000000002</v>
+        <v>0.20299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1451,11 +1451,11 @@
         <v>0.4</v>
       </c>
       <c r="L16" s="1">
-        <v>0.245</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>0.755</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7EBCE-8954-BE4E-9D93-617A0BD9276E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2EE9C6-ADD2-2445-ABD3-040B561F384D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
     <sheet name="markets" sheetId="1" r:id="rId2"/>
     <sheet name="buyers" sheetId="3" r:id="rId3"/>
+    <sheet name="marketQuota" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Variables</t>
   </si>
@@ -132,6 +133,18 @@
   </si>
   <si>
     <t>SAVED_ENDORSEMENTS</t>
+  </si>
+  <si>
+    <t>SAVED_DETAILED_RESULTS</t>
+  </si>
+  <si>
+    <t>Banggood</t>
+  </si>
+  <si>
+    <t>Lightinthebox</t>
+  </si>
+  <si>
+    <t>MARKET_QUOTA</t>
   </si>
 </sst>
 </file>
@@ -654,15 +667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +683,7 @@
         <v>29</v>
       </c>
       <c r="B1">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,6 +756,22 @@
       </c>
       <c r="B10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1603,4 +1632,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF7391-90C3-9B41-A412-547F33B4B5B0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>92.270531400966178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>10.144927536231885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>41.304347826086953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>14.251207729468598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>11.594202898550725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>42.512077294685987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2EE9C6-ADD2-2445-ABD3-040B561F384D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959535EC-D6E7-864D-8C95-8596529F010F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Variables</t>
   </si>
@@ -145,13 +145,16 @@
   </si>
   <si>
     <t>MARKET_QUOTA</t>
+  </si>
+  <si>
+    <t>FRIEND_RECOMMENDATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +190,11 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
   <fills count="7">
@@ -316,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -352,6 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,115 +676,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="17">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="17">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -789,12 +807,12 @@
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -811,7 +829,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="12"/>
       <c r="B2" s="16" t="s">
         <v>1</v>
@@ -838,7 +856,7 @@
       </c>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -877,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -924,7 +942,7 @@
         <v>0.45799999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -971,7 +989,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1036,7 @@
         <v>0.55899999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>0.81400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>0.20299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1508,16 +1526,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1533,7 +1551,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1559,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1575,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1591,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1597,7 +1615,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1623,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1631,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -1631,6 +1649,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1642,13 +1661,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +1675,7 @@
         <v>92.270531400966178</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1664,7 +1683,7 @@
         <v>10.144927536231885</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1691,7 @@
         <v>41.304347826086953</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1699,7 @@
         <v>14.251207729468598</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>11.594202898550725</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>

--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959535EC-D6E7-864D-8C95-8596529F010F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE255071-FA78-4740-ABFC-1C42387C10A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Variables</t>
   </si>
@@ -135,9 +129,6 @@
     <t>SAVED_ENDORSEMENTS</t>
   </si>
   <si>
-    <t>SAVED_DETAILED_RESULTS</t>
-  </si>
-  <si>
     <t>Banggood</t>
   </si>
   <si>
@@ -148,6 +139,15 @@
   </si>
   <si>
     <t>FRIEND_RECOMMENDATION</t>
+  </si>
+  <si>
+    <t>SAVED_AGENT_DECISIONS</t>
+  </si>
+  <si>
+    <t>SAVED_DETAILED_AGENT_DECISIONS</t>
+  </si>
+  <si>
+    <t>SAVED_SALES_PER_MARKET</t>
   </si>
 </sst>
 </file>
@@ -342,6 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,7 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,22 +676,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="11">
         <v>300</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="11">
         <v>50</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>17</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>0.7</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
     </row>
@@ -731,15 +731,15 @@
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="17">
-        <v>20</v>
+      <c r="B6" s="11">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
     </row>
@@ -747,15 +747,15 @@
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17">
-        <v>3</v>
+      <c r="B8" s="11">
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>-1</v>
       </c>
     </row>
@@ -763,32 +763,48 @@
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="17">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="17">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -813,51 +829,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="16"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1693,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>10.144927536231885</v>
@@ -1701,7 +1717,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>11.594202898550725</v>

--- a/input/TEST.xlsx
+++ b/input/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE255071-FA78-4740-ABFC-1C42387C10A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A9671D-0059-E749-B5DE-908848F86231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="28080" windowHeight="17540" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Variables</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>SAVED_SALES_PER_MARKET</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>LEARNING_PERIODS</t>
   </si>
 </sst>
 </file>
@@ -676,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -732,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="11">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -804,7 +810,23 @@
         <v>36</v>
       </c>
       <c r="B15" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
